--- a/public/FormatoCargaB.xlsx
+++ b/public/FormatoCargaB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpetas_Clientes\CallSouth\LosHeroes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codigos\Vcode_Clon\CallSouth.LosHeroes\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14022BC-84AE-4B21-92E7-68E33D784EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AE5F2A-C7E6-4C6A-B586-F1FF863CD957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{C74820B1-DADF-443D-8863-1309555093EE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="1230">
   <si>
     <t>RUT</t>
   </si>
@@ -3722,6 +3722,9 @@
   </si>
   <si>
     <t>Carga Inicial</t>
+  </si>
+  <si>
+    <t>OBSERVACION_FASE_A</t>
   </si>
 </sst>
 </file>
@@ -4067,7 +4070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4075,7 +4078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AAFB5B-F0E7-4E55-9877-680949BFF342}">
-  <dimension ref="A1:BM223"/>
+  <dimension ref="A1:BN223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4139,7 +4142,7 @@
     <col min="65" max="65" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1227</v>
       </c>
@@ -4335,8 +4338,11 @@
       <c r="BM1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1228</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1228</v>
       </c>
@@ -4457,7 +4463,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1228</v>
       </c>
@@ -4525,7 +4531,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1228</v>
       </c>
@@ -4599,7 +4605,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1228</v>
       </c>
@@ -4664,7 +4670,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1228</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1228</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1228</v>
       </c>
@@ -4856,7 +4862,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1228</v>
       </c>
@@ -4927,7 +4933,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1228</v>
       </c>
@@ -4989,7 +4995,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1228</v>
       </c>
@@ -5051,7 +5057,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1228</v>
       </c>
@@ -5113,7 +5119,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1228</v>
       </c>
@@ -5175,7 +5181,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1228</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1228</v>
       </c>
